--- a/team_specific_matrix/Wichita St._A.xlsx
+++ b/team_specific_matrix/Wichita St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2209302325581395</v>
+        <v>0.2240663900414938</v>
       </c>
       <c r="C2">
-        <v>0.4941860465116279</v>
+        <v>0.4854771784232365</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01162790697674419</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1627906976744186</v>
+        <v>0.1576763485477178</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1104651162790698</v>
+        <v>0.1203319502074689</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01149425287356322</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06896551724137931</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7931034482758621</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1264367816091954</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09375</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.625</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.28125</v>
+        <v>0.2682926829268293</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07692307692307693</v>
+        <v>0.07303370786516854</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006993006993006993</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="E6">
-        <v>0.006993006993006993</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="F6">
-        <v>0.06993006993006994</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1748251748251748</v>
+        <v>0.1910112359550562</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01398601398601399</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1398601398601399</v>
+        <v>0.1404494382022472</v>
       </c>
       <c r="R6">
-        <v>0.08391608391608392</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="S6">
-        <v>0.4265734265734266</v>
+        <v>0.4325842696629214</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09649122807017543</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03508771929824561</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04385964912280702</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07017543859649122</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.008771929824561403</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1842105263157895</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="R7">
-        <v>0.08771929824561403</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="S7">
-        <v>0.4736842105263158</v>
+        <v>0.4473684210526316</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05660377358490566</v>
+        <v>0.05980861244019139</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01572327044025157</v>
+        <v>0.0215311004784689</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06289308176100629</v>
+        <v>0.05980861244019139</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1257861635220126</v>
+        <v>0.1172248803827751</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0220125786163522</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2327044025157233</v>
+        <v>0.2320574162679426</v>
       </c>
       <c r="R8">
-        <v>0.09433962264150944</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S8">
-        <v>0.389937106918239</v>
+        <v>0.3947368421052632</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05696202531645569</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04430379746835443</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08860759493670886</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1139240506329114</v>
+        <v>0.1191709844559585</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02531645569620253</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1772151898734177</v>
+        <v>0.1917098445595855</v>
       </c>
       <c r="R9">
-        <v>0.0949367088607595</v>
+        <v>0.09844559585492228</v>
       </c>
       <c r="S9">
-        <v>0.3987341772151899</v>
+        <v>0.4041450777202072</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09367945823927765</v>
+        <v>0.09883720930232558</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01693002257336343</v>
+        <v>0.0132890365448505</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07336343115124154</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1376975169300226</v>
+        <v>0.1337209302325581</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01128668171557562</v>
+        <v>0.009136212624584718</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2336343115124153</v>
+        <v>0.2425249169435216</v>
       </c>
       <c r="R10">
-        <v>0.05304740406320542</v>
+        <v>0.05398671096345515</v>
       </c>
       <c r="S10">
-        <v>0.3803611738148984</v>
+        <v>0.3770764119601329</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1055900621118012</v>
+        <v>0.1377777777777778</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06832298136645963</v>
+        <v>0.06222222222222222</v>
       </c>
       <c r="K11">
-        <v>0.15527950310559</v>
+        <v>0.1955555555555556</v>
       </c>
       <c r="L11">
-        <v>0.6583850931677019</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0124223602484472</v>
+        <v>0.01777777777777778</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7798165137614679</v>
+        <v>0.7720588235294118</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1834862385321101</v>
+        <v>0.1911764705882353</v>
       </c>
       <c r="K12">
-        <v>0.009174311926605505</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="L12">
-        <v>0.02752293577981652</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6451612903225806</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2903225806451613</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06451612903225806</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02097902097902098</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1538461538461539</v>
+        <v>0.1611111111111111</v>
       </c>
       <c r="I15">
-        <v>0.05594405594405594</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="J15">
-        <v>0.3846153846153846</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="K15">
-        <v>0.06993006993006994</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01398601398601399</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06293706293706294</v>
+        <v>0.05</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2377622377622378</v>
+        <v>0.2388888888888889</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2260869565217391</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="I16">
-        <v>0.06086956521739131</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="J16">
-        <v>0.4086956521739131</v>
+        <v>0.4220779220779221</v>
       </c>
       <c r="K16">
-        <v>0.06956521739130435</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.008695652173913044</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05217391304347826</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1739130434782609</v>
+        <v>0.1558441558441558</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.002865329512893983</v>
+        <v>0.00208768267223382</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2148997134670487</v>
+        <v>0.208768267223382</v>
       </c>
       <c r="I17">
-        <v>0.09169054441260745</v>
+        <v>0.07933194154488518</v>
       </c>
       <c r="J17">
-        <v>0.4355300859598854</v>
+        <v>0.4676409185803758</v>
       </c>
       <c r="K17">
-        <v>0.06876790830945559</v>
+        <v>0.06471816283924843</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02005730659025788</v>
+        <v>0.01461377870563674</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05444126074498568</v>
+        <v>0.05845511482254697</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1117478510028653</v>
+        <v>0.104384133611691</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1946902654867257</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="I18">
-        <v>0.1061946902654867</v>
+        <v>0.1013513513513514</v>
       </c>
       <c r="J18">
-        <v>0.4778761061946903</v>
+        <v>0.4797297297297297</v>
       </c>
       <c r="K18">
-        <v>0.05309734513274336</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008849557522123894</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="N18">
-        <v>0.008849557522123894</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="O18">
-        <v>0.03539823008849557</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1150442477876106</v>
+        <v>0.1351351351351351</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.004464285714285714</v>
+        <v>0.004248088360237893</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1941964285714286</v>
+        <v>0.1954120645709431</v>
       </c>
       <c r="I19">
-        <v>0.1104910714285714</v>
+        <v>0.1045029736618522</v>
       </c>
       <c r="J19">
-        <v>0.3683035714285715</v>
+        <v>0.3797790994052676</v>
       </c>
       <c r="K19">
-        <v>0.09375</v>
+        <v>0.09430756159728122</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0234375</v>
+        <v>0.02209005947323704</v>
       </c>
       <c r="N19">
-        <v>0.001116071428571429</v>
+        <v>0.0008496176720475786</v>
       </c>
       <c r="O19">
-        <v>0.07477678571428571</v>
+        <v>0.0713678844519966</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1294642857142857</v>
+        <v>0.1274426508071368</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Wichita St._A.xlsx
+++ b/team_specific_matrix/Wichita St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2240663900414938</v>
+        <v>0.2250922509225092</v>
       </c>
       <c r="C2">
-        <v>0.4854771784232365</v>
+        <v>0.4907749077490775</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01244813278008299</v>
+        <v>0.01476014760147601</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1576763485477178</v>
+        <v>0.1623616236162362</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1203319502074689</v>
+        <v>0.1070110701107011</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008333333333333333</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="C3">
-        <v>0.01666666666666667</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05833333333333333</v>
+        <v>0.05147058823529412</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7916666666666666</v>
+        <v>0.7867647058823529</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.125</v>
+        <v>0.1397058823529412</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1219512195121951</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6097560975609756</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2682926829268293</v>
+        <v>0.2826086956521739</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07303370786516854</v>
+        <v>0.08021390374331551</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005617977528089887</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="E6">
-        <v>0.005617977528089887</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="F6">
-        <v>0.05617977528089887</v>
+        <v>0.053475935828877</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1910112359550562</v>
+        <v>0.1925133689839572</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01685393258426966</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1404494382022472</v>
+        <v>0.1390374331550802</v>
       </c>
       <c r="R6">
-        <v>0.07865168539325842</v>
+        <v>0.0748663101604278</v>
       </c>
       <c r="S6">
-        <v>0.4325842696629214</v>
+        <v>0.4331550802139038</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1052631578947368</v>
+        <v>0.1028571428571429</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05263157894736842</v>
+        <v>0.04571428571428571</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03947368421052631</v>
+        <v>0.03428571428571429</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07236842105263158</v>
+        <v>0.08</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006578947368421052</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1973684210526316</v>
+        <v>0.2</v>
       </c>
       <c r="R7">
-        <v>0.07894736842105263</v>
+        <v>0.06857142857142857</v>
       </c>
       <c r="S7">
-        <v>0.4473684210526316</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05980861244019139</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0215311004784689</v>
+        <v>0.02136752136752137</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05980861244019139</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1172248803827751</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02392344497607655</v>
+        <v>0.02136752136752137</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2320574162679426</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R8">
-        <v>0.09090909090909091</v>
+        <v>0.09401709401709402</v>
       </c>
       <c r="S8">
-        <v>0.3947368421052632</v>
+        <v>0.4017094017094017</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05699481865284974</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03626943005181347</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07253886010362694</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1191709844559585</v>
+        <v>0.1105769230769231</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02072538860103627</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1917098445595855</v>
+        <v>0.1971153846153846</v>
       </c>
       <c r="R9">
-        <v>0.09844559585492228</v>
+        <v>0.1105769230769231</v>
       </c>
       <c r="S9">
-        <v>0.4041450777202072</v>
+        <v>0.3990384615384616</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09883720930232558</v>
+        <v>0.09777777777777778</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0132890365448505</v>
+        <v>0.01407407407407407</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07142857142857142</v>
+        <v>0.06518518518518518</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1337209302325581</v>
+        <v>0.1362962962962963</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009136212624584718</v>
+        <v>0.00962962962962963</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2425249169435216</v>
+        <v>0.2414814814814815</v>
       </c>
       <c r="R10">
-        <v>0.05398671096345515</v>
+        <v>0.05925925925925926</v>
       </c>
       <c r="S10">
-        <v>0.3770764119601329</v>
+        <v>0.3762962962962963</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1377777777777778</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06222222222222222</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="K11">
-        <v>0.1955555555555556</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="L11">
-        <v>0.5866666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01777777777777778</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7720588235294118</v>
+        <v>0.7658227848101266</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1911764705882353</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="K12">
-        <v>0.01470588235294118</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="L12">
-        <v>0.02205882352941177</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6153846153846154</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3076923076923077</v>
+        <v>0.2954545454545455</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07692307692307693</v>
+        <v>0.06818181818181818</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01666666666666667</v>
+        <v>0.015</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1611111111111111</v>
+        <v>0.145</v>
       </c>
       <c r="I15">
-        <v>0.06111111111111111</v>
+        <v>0.065</v>
       </c>
       <c r="J15">
-        <v>0.3777777777777778</v>
+        <v>0.39</v>
       </c>
       <c r="K15">
-        <v>0.07222222222222222</v>
+        <v>0.075</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02222222222222222</v>
+        <v>0.02</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2388888888888889</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2337662337662338</v>
+        <v>0.2298850574712644</v>
       </c>
       <c r="I16">
-        <v>0.04545454545454546</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="J16">
-        <v>0.4220779220779221</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="K16">
-        <v>0.07792207792207792</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01948051948051948</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04545454545454546</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1558441558441558</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.00208768267223382</v>
+        <v>0.001886792452830189</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.208768267223382</v>
+        <v>0.2113207547169811</v>
       </c>
       <c r="I17">
-        <v>0.07933194154488518</v>
+        <v>0.07735849056603773</v>
       </c>
       <c r="J17">
-        <v>0.4676409185803758</v>
+        <v>0.4622641509433962</v>
       </c>
       <c r="K17">
-        <v>0.06471816283924843</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01461377870563674</v>
+        <v>0.01509433962264151</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05845511482254697</v>
+        <v>0.05471698113207547</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.104384133611691</v>
+        <v>0.1113207547169811</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1756756756756757</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="I18">
-        <v>0.1013513513513514</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="J18">
-        <v>0.4797297297297297</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="K18">
-        <v>0.06756756756756757</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006756756756756757</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="N18">
-        <v>0.006756756756756757</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="O18">
-        <v>0.02702702702702703</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1351351351351351</v>
+        <v>0.1337209302325581</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.004248088360237893</v>
+        <v>0.005299015897047691</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1954120645709431</v>
+        <v>0.1960635881907646</v>
       </c>
       <c r="I19">
-        <v>0.1045029736618522</v>
+        <v>0.09992429977289932</v>
       </c>
       <c r="J19">
-        <v>0.3797790994052676</v>
+        <v>0.3739591218773656</v>
       </c>
       <c r="K19">
-        <v>0.09430756159728122</v>
+        <v>0.09992429977289932</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02209005947323704</v>
+        <v>0.02271006813020439</v>
       </c>
       <c r="N19">
-        <v>0.0008496176720475786</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="O19">
-        <v>0.0713678844519966</v>
+        <v>0.07191521574564724</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1274426508071368</v>
+        <v>0.129447388342165</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Wichita St._A.xlsx
+++ b/team_specific_matrix/Wichita St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2250922509225092</v>
+        <v>0.2359154929577465</v>
       </c>
       <c r="C2">
-        <v>0.4907749077490775</v>
+        <v>0.4823943661971831</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01476014760147601</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1623616236162362</v>
+        <v>0.1619718309859155</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1070110701107011</v>
+        <v>0.1056338028169014</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007352941176470588</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="C3">
-        <v>0.01470588235294118</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05147058823529412</v>
+        <v>0.05</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7867647058823529</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1397058823529412</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.108695652173913</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6086956521739131</v>
+        <v>0.625</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2826086956521739</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08021390374331551</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0053475935828877</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="E6">
-        <v>0.0053475935828877</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="F6">
-        <v>0.053475935828877</v>
+        <v>0.05154639175257732</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1925133689839572</v>
+        <v>0.1907216494845361</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0160427807486631</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1390374331550802</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="R6">
-        <v>0.0748663101604278</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="S6">
-        <v>0.4331550802139038</v>
+        <v>0.4381443298969072</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1028571428571429</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04571428571428571</v>
+        <v>0.0427807486631016</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03428571428571429</v>
+        <v>0.03208556149732621</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01142857142857143</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2</v>
+        <v>0.1978609625668449</v>
       </c>
       <c r="R7">
-        <v>0.06857142857142857</v>
+        <v>0.0748663101604278</v>
       </c>
       <c r="S7">
-        <v>0.4571428571428571</v>
+        <v>0.4598930481283423</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0641025641025641</v>
+        <v>0.06597938144329897</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02136752136752137</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05982905982905983</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1153846153846154</v>
+        <v>0.1134020618556701</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02136752136752137</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2222222222222222</v>
+        <v>0.2206185567010309</v>
       </c>
       <c r="R8">
-        <v>0.09401709401709402</v>
+        <v>0.09484536082474226</v>
       </c>
       <c r="S8">
-        <v>0.4017094017094017</v>
+        <v>0.4020618556701031</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0576923076923077</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0673076923076923</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1105769230769231</v>
+        <v>0.1157407407407407</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01923076923076923</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1971153846153846</v>
+        <v>0.1898148148148148</v>
       </c>
       <c r="R9">
-        <v>0.1105769230769231</v>
+        <v>0.1064814814814815</v>
       </c>
       <c r="S9">
-        <v>0.3990384615384616</v>
+        <v>0.3981481481481481</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09777777777777778</v>
+        <v>0.09806728704366499</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01407407407407407</v>
+        <v>0.01431639226914817</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06518518518518518</v>
+        <v>0.06370794559770938</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1362962962962963</v>
+        <v>0.1388690050107373</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.00962962962962963</v>
+        <v>0.009305654974946313</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2414814814814815</v>
+        <v>0.2412312097351468</v>
       </c>
       <c r="R10">
-        <v>0.05925925925925926</v>
+        <v>0.06084466714387974</v>
       </c>
       <c r="S10">
-        <v>0.3762962962962963</v>
+        <v>0.3736578382247673</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1363636363636364</v>
+        <v>0.1342756183745583</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06060606060606061</v>
+        <v>0.06713780918727916</v>
       </c>
       <c r="K11">
-        <v>0.196969696969697</v>
+        <v>0.1943462897526502</v>
       </c>
       <c r="L11">
-        <v>0.5833333333333334</v>
+        <v>0.5830388692579506</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02272727272727273</v>
+        <v>0.02120141342756184</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7658227848101266</v>
+        <v>0.7633136094674556</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2025316455696203</v>
+        <v>0.2011834319526627</v>
       </c>
       <c r="K12">
-        <v>0.01265822784810127</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="L12">
-        <v>0.0189873417721519</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6363636363636364</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2954545454545455</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06818181818181818</v>
+        <v>0.06521739130434782</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.015</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.145</v>
+        <v>0.1512195121951219</v>
       </c>
       <c r="I15">
-        <v>0.065</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="J15">
-        <v>0.39</v>
+        <v>0.3853658536585366</v>
       </c>
       <c r="K15">
-        <v>0.075</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.045</v>
+        <v>0.04390243902439024</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.245</v>
+        <v>0.2439024390243902</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2298850574712644</v>
+        <v>0.2320441988950276</v>
       </c>
       <c r="I16">
-        <v>0.04597701149425287</v>
+        <v>0.04972375690607735</v>
       </c>
       <c r="J16">
-        <v>0.4482758620689655</v>
+        <v>0.4364640883977901</v>
       </c>
       <c r="K16">
-        <v>0.07471264367816093</v>
+        <v>0.08287292817679558</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01724137931034483</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04597701149425287</v>
+        <v>0.04419889502762431</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1379310344827586</v>
+        <v>0.1325966850828729</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.001886792452830189</v>
+        <v>0.001831501831501832</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2113207547169811</v>
+        <v>0.2087912087912088</v>
       </c>
       <c r="I17">
-        <v>0.07735849056603773</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J17">
-        <v>0.4622641509433962</v>
+        <v>0.4597069597069597</v>
       </c>
       <c r="K17">
-        <v>0.0660377358490566</v>
+        <v>0.0695970695970696</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01509433962264151</v>
+        <v>0.01465201465201465</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05471698113207547</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1113207547169811</v>
+        <v>0.1135531135531136</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.186046511627907</v>
+        <v>0.1878453038674033</v>
       </c>
       <c r="I18">
-        <v>0.0872093023255814</v>
+        <v>0.08839779005524862</v>
       </c>
       <c r="J18">
-        <v>0.4883720930232558</v>
+        <v>0.4806629834254144</v>
       </c>
       <c r="K18">
-        <v>0.06976744186046512</v>
+        <v>0.0718232044198895</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005813953488372093</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="N18">
-        <v>0.005813953488372093</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="O18">
-        <v>0.02325581395348837</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1337209302325581</v>
+        <v>0.1270718232044199</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.005299015897047691</v>
+        <v>0.005124450951683748</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1960635881907646</v>
+        <v>0.1961932650073206</v>
       </c>
       <c r="I19">
-        <v>0.09992429977289932</v>
+        <v>0.09956076134699854</v>
       </c>
       <c r="J19">
-        <v>0.3739591218773656</v>
+        <v>0.3733528550512445</v>
       </c>
       <c r="K19">
-        <v>0.09992429977289932</v>
+        <v>0.1032210834553441</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02271006813020439</v>
+        <v>0.02196193265007321</v>
       </c>
       <c r="N19">
-        <v>0.000757002271006813</v>
+        <v>0.0007320644216691069</v>
       </c>
       <c r="O19">
-        <v>0.07191521574564724</v>
+        <v>0.07101024890190337</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.129447388342165</v>
+        <v>0.1288433382137628</v>
       </c>
     </row>
   </sheetData>
